--- a/Excel Base de datos.xlsx
+++ b/Excel Base de datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\Base-De-Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>edad</t>
   </si>
@@ -105,6 +105,69 @@
   </si>
   <si>
     <t>villa hermosa</t>
+  </si>
+  <si>
+    <t>sebastian</t>
+  </si>
+  <si>
+    <t>mileidi</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>ricardo</t>
+  </si>
+  <si>
+    <t>camila</t>
+  </si>
+  <si>
+    <t>valeria</t>
+  </si>
+  <si>
+    <t>isabella</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>prado centro</t>
+  </si>
+  <si>
+    <t>la candelaria</t>
+  </si>
+  <si>
+    <t>buenos aires</t>
+  </si>
+  <si>
+    <t>manrique</t>
+  </si>
+  <si>
+    <t>12 de octubre</t>
+  </si>
+  <si>
+    <t>el salvador</t>
+  </si>
+  <si>
+    <t>vlla hermosa</t>
+  </si>
+  <si>
+    <t>la estrella</t>
+  </si>
+  <si>
+    <t>castilla</t>
+  </si>
+  <si>
+    <t>riohacha</t>
+  </si>
+  <si>
+    <t>la sierra</t>
+  </si>
+  <si>
+    <t>enciso</t>
+  </si>
+  <si>
+    <t>boston</t>
   </si>
 </sst>
 </file>
@@ -134,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,15 +220,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,11 +660,19 @@
         <v>2006</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N4" s="1">
         <v>4</v>
       </c>
@@ -601,11 +696,19 @@
         <v>2006</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" s="1">
         <v>3</v>
       </c>
@@ -629,11 +732,19 @@
         <v>2006</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N6" s="1">
         <v>3</v>
       </c>
@@ -657,11 +768,19 @@
         <v>2005</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1">
         <v>4</v>
       </c>
@@ -685,17 +804,27 @@
         <v>2005</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -709,17 +838,27 @@
         <v>2006</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -733,17 +872,27 @@
         <v>2007</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -757,17 +906,27 @@
         <v>2006</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N11" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -781,17 +940,27 @@
         <v>2007</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -805,17 +974,27 @@
         <v>2006</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -829,17 +1008,27 @@
         <v>2007</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N14" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -853,17 +1042,27 @@
         <v>2006</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -877,17 +1076,27 @@
         <v>2007</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -901,11 +1110,19 @@
         <v>2006</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N17" s="1">
         <v>3</v>
       </c>
@@ -925,11 +1142,19 @@
         <v>2007</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1">
         <v>3</v>
       </c>
@@ -949,11 +1174,19 @@
         <v>2008</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N19" s="1">
         <v>4</v>
       </c>
@@ -973,11 +1206,19 @@
         <v>2007</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N20" s="1">
         <v>5</v>
       </c>
@@ -997,11 +1238,19 @@
         <v>2006</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1">
         <v>5</v>
       </c>
@@ -1021,11 +1270,19 @@
         <v>2007</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="N22" s="1">
         <v>4</v>
       </c>
@@ -1045,11 +1302,19 @@
         <v>2008</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="N23" s="1">
         <v>3</v>
       </c>
@@ -1069,11 +1334,19 @@
         <v>2008</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="1">
         <v>3</v>
       </c>
@@ -1093,11 +1366,19 @@
         <v>2007</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N25" s="1">
         <v>4</v>
       </c>
@@ -1117,11 +1398,19 @@
         <v>2006</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N26" s="1">
         <v>2</v>
       </c>
@@ -1141,11 +1430,19 @@
         <v>2007</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N27" s="1">
         <v>3</v>
       </c>
@@ -1165,11 +1462,19 @@
         <v>2006</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N28" s="1">
         <v>3</v>
       </c>
@@ -1189,11 +1494,19 @@
         <v>2007</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N29" s="1">
         <v>2</v>
       </c>
@@ -1213,9 +1526,15 @@
         <v>2006</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1">
@@ -1237,9 +1556,15 @@
         <v>2006</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
@@ -1261,9 +1586,15 @@
         <v>2005</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
@@ -1285,9 +1616,15 @@
         <v>2004</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
@@ -1309,9 +1646,15 @@
         <v>2003</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1">
@@ -1333,9 +1676,15 @@
         <v>2004</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
@@ -1357,9 +1706,15 @@
         <v>2005</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
@@ -1381,9 +1736,15 @@
         <v>2004</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
@@ -1405,9 +1766,15 @@
         <v>2003</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
@@ -1429,9 +1796,15 @@
         <v>2005</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
@@ -1453,9 +1826,15 @@
         <v>2008</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
@@ -1477,9 +1856,15 @@
         <v>2004</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
@@ -1501,9 +1886,15 @@
         <v>2006</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1">
@@ -1525,9 +1916,15 @@
         <v>2007</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
@@ -1549,9 +1946,15 @@
         <v>2006</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
@@ -1573,9 +1976,15 @@
         <v>2007</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
@@ -1597,9 +2006,15 @@
         <v>2006</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
@@ -1621,9 +2036,15 @@
         <v>2005</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1">
@@ -1645,9 +2066,15 @@
         <v>2006</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
@@ -1669,9 +2096,15 @@
         <v>2005</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1">
@@ -1693,9 +2126,15 @@
         <v>2004</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
@@ -1717,9 +2156,15 @@
         <v>2006</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1">
@@ -1741,9 +2186,15 @@
         <v>2004</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="I52" s="1">
+        <v>4</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>5</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1">
@@ -1765,9 +2216,15 @@
         <v>2011</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1">
@@ -1789,9 +2246,15 @@
         <v>2005</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="I54" s="1">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1">
@@ -1813,9 +2276,15 @@
         <v>2004</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>5</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1">
@@ -1837,9 +2306,15 @@
         <v>2003</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="I56" s="1">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1">
@@ -1861,9 +2336,15 @@
         <v>2006</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1">
@@ -1885,9 +2366,15 @@
         <v>2006</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1">
+        <v>3</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1">
@@ -1909,9 +2396,15 @@
         <v>2004</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1">
@@ -1933,9 +2426,15 @@
         <v>2003</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="I60" s="1">
+        <v>4</v>
+      </c>
+      <c r="J60" s="1">
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1">
@@ -1957,9 +2456,15 @@
         <v>2006</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1">
@@ -1981,9 +2486,15 @@
         <v>2004</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>3</v>
+      </c>
+      <c r="K62" s="1">
+        <v>3</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1">
@@ -2005,9 +2516,15 @@
         <v>2005</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1">
@@ -2029,9 +2546,15 @@
         <v>2006</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>5</v>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1">
@@ -2053,9 +2576,15 @@
         <v>2006</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>5</v>
+      </c>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1">
@@ -2077,9 +2606,15 @@
         <v>2004</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="I66" s="1">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>3</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1">
@@ -2101,9 +2636,15 @@
         <v>2006</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="I67" s="1">
+        <v>4</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3</v>
+      </c>
+      <c r="K67" s="1">
+        <v>5</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1">
@@ -2125,9 +2666,15 @@
         <v>2006</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1">
@@ -2149,9 +2696,15 @@
         <v>2005</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>3</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1">
@@ -2173,9 +2726,15 @@
         <v>2006</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="I70" s="1">
+        <v>3</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3</v>
+      </c>
+      <c r="K70" s="1">
+        <v>4</v>
+      </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1">
@@ -2197,9 +2756,15 @@
         <v>2005</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>5</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1">
@@ -2221,9 +2786,15 @@
         <v>2006</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>3</v>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1">
@@ -2245,9 +2816,15 @@
         <v>2004</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>3</v>
+      </c>
+      <c r="K73" s="1">
+        <v>5</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1">
@@ -2269,9 +2846,15 @@
         <v>2004</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>5</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1">
@@ -2293,9 +2876,15 @@
         <v>2004</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>3</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1">
@@ -2317,9 +2906,15 @@
         <v>2003</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>5</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1">
@@ -2341,9 +2936,15 @@
         <v>2004</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+      <c r="K77" s="1">
+        <v>3</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1">
@@ -2362,12 +2963,18 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>200</v>
+        <v>2003</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="I78" s="1">
+        <v>4</v>
+      </c>
+      <c r="J78" s="1">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1">
@@ -2385,11 +2992,19 @@
       <c r="F79" s="1">
         <v>1</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1">
+        <v>2006</v>
+      </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="I79" s="1">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1">
@@ -2407,11 +3022,19 @@
       <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <v>2005</v>
+      </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="I80" s="1">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3</v>
+      </c>
+      <c r="K80" s="1">
+        <v>3</v>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1">
@@ -2429,11 +3052,19 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <v>2004</v>
+      </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1">
+        <v>5</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
@@ -2451,11 +3082,19 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <v>2006</v>
+      </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="I82" s="1">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1">
@@ -2473,11 +3112,19 @@
       <c r="F83" s="1">
         <v>1</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <v>2004</v>
+      </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="I83" s="1">
+        <v>3</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+      <c r="K83" s="1">
+        <v>3</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1">
@@ -2495,11 +3142,19 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1">
+        <v>2005</v>
+      </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="I84" s="1">
+        <v>5</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3</v>
+      </c>
+      <c r="K84" s="1">
+        <v>5</v>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1">
@@ -2517,11 +3172,19 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <v>2006</v>
+      </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="I85" s="1">
+        <v>2</v>
+      </c>
+      <c r="J85" s="1">
+        <v>5</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1">
@@ -2539,11 +3202,19 @@
       <c r="F86" s="1">
         <v>0</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <v>2006</v>
+      </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3</v>
+      </c>
+      <c r="K86" s="1">
+        <v>3</v>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1">
@@ -2561,11 +3232,19 @@
       <c r="F87" s="1">
         <v>0</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1">
+        <v>2007</v>
+      </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="I87" s="1">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>5</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1">
@@ -2583,11 +3262,19 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <v>2006</v>
+      </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="I88" s="1">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1">
@@ -2605,11 +3292,19 @@
       <c r="F89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1">
+        <v>2004</v>
+      </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="I89" s="1">
+        <v>5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>5</v>
+      </c>
+      <c r="K89" s="1">
+        <v>3</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1">
@@ -2627,11 +3322,19 @@
       <c r="F90" s="1">
         <v>0</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <v>2005</v>
+      </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="I90" s="1">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1">
+        <v>3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>5</v>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
@@ -2649,11 +3352,19 @@
       <c r="F91" s="1">
         <v>1</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <v>2003</v>
+      </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="I91" s="1">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>4</v>
+      </c>
+      <c r="K91" s="1">
+        <v>2</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1">
@@ -2671,11 +3382,19 @@
       <c r="F92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1">
+        <v>2006</v>
+      </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="I92" s="1">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>3</v>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1">
@@ -2693,11 +3412,19 @@
       <c r="F93" s="1">
         <v>1</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1">
+        <v>2005</v>
+      </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="I93" s="1">
+        <v>4</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3</v>
+      </c>
+      <c r="K93" s="1">
+        <v>5</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1">
@@ -2715,11 +3442,19 @@
       <c r="F94" s="1">
         <v>1</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1">
+        <v>2004</v>
+      </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="I94" s="1">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1">
+        <v>5</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1">
@@ -2737,11 +3472,19 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1">
+        <v>2006</v>
+      </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="I95" s="1">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1">
+        <v>3</v>
+      </c>
+      <c r="K95" s="1">
+        <v>3</v>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1">
@@ -2759,11 +3502,19 @@
       <c r="F96" s="1">
         <v>1</v>
       </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1">
+        <v>2004</v>
+      </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="I96" s="1">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1">
+        <v>5</v>
+      </c>
+      <c r="K96" s="1">
+        <v>5</v>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1">
@@ -2781,11 +3532,19 @@
       <c r="F97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1">
+        <v>2003</v>
+      </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="I97" s="1">
+        <v>5</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
@@ -2803,11 +3562,19 @@
       <c r="F98" s="1">
         <v>1</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1">
+        <v>2006</v>
+      </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="I98" s="1">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+      <c r="K98" s="1">
+        <v>3</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1">
@@ -2825,11 +3592,19 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1">
+        <v>2005</v>
+      </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>5</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1">
@@ -2847,11 +3622,19 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1">
+        <v>2007</v>
+      </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="I100" s="1">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>3</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1">
@@ -2869,11 +3652,19 @@
       <c r="F101" s="1">
         <v>0</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1">
+        <v>2005</v>
+      </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="I101" s="1">
+        <v>4</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3</v>
+      </c>
+      <c r="K101" s="1">
+        <v>5</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1">
@@ -2891,11 +3682,19 @@
       <c r="F102" s="1">
         <v>1</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1">
+        <v>2007</v>
+      </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="I102" s="1">
+        <v>5</v>
+      </c>
+      <c r="J102" s="1">
+        <v>5</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1">
@@ -2913,11 +3712,19 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1">
+        <v>2006</v>
+      </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="4">
+        <v>2</v>
+      </c>
+      <c r="K103" s="1">
+        <v>3</v>
+      </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1">
@@ -2925,6 +3732,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J104" s="5"/>
       <c r="N104" s="3"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">

--- a/Excel Base de datos.xlsx
+++ b/Excel Base de datos.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Profesores" sheetId="2" r:id="rId2"/>
+    <sheet name="Administradores" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="267">
   <si>
     <t>edad</t>
   </si>
@@ -56,9 +58,6 @@
     <t>nota artistica</t>
   </si>
   <si>
-    <t>direccion</t>
-  </si>
-  <si>
     <t>barrio</t>
   </si>
   <si>
@@ -68,27 +67,6 @@
     <t>Juan</t>
   </si>
   <si>
-    <t>Esteban</t>
-  </si>
-  <si>
-    <t>camilo</t>
-  </si>
-  <si>
-    <t>yadher</t>
-  </si>
-  <si>
-    <t>juan</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>miguel</t>
-  </si>
-  <si>
-    <t>N.O</t>
-  </si>
-  <si>
     <t>Felipe</t>
   </si>
   <si>
@@ -101,36 +79,9 @@
     <t>acudiente</t>
   </si>
   <si>
-    <t>calle 63a #42-55</t>
-  </si>
-  <si>
     <t>villa hermosa</t>
   </si>
   <si>
-    <t>sebastian</t>
-  </si>
-  <si>
-    <t>mileidi</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>ricardo</t>
-  </si>
-  <si>
-    <t>camila</t>
-  </si>
-  <si>
-    <t>valeria</t>
-  </si>
-  <si>
-    <t>isabella</t>
-  </si>
-  <si>
-    <t>manuel</t>
-  </si>
-  <si>
     <t>prado centro</t>
   </si>
   <si>
@@ -168,13 +119,721 @@
   </si>
   <si>
     <t>boston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bello </t>
+  </si>
+  <si>
+    <t>envigado</t>
+  </si>
+  <si>
+    <t>robledo</t>
+  </si>
+  <si>
+    <t>los colores</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>matematicas</t>
+  </si>
+  <si>
+    <t>español</t>
+  </si>
+  <si>
+    <t>filosofia</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>etica</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>ingles</t>
+  </si>
+  <si>
+    <t>biologia</t>
+  </si>
+  <si>
+    <t>sociales</t>
+  </si>
+  <si>
+    <t>artistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quimica </t>
+  </si>
+  <si>
+    <t>ed fisica</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>coordinador convivencia</t>
+  </si>
+  <si>
+    <t>coordinador academico</t>
+  </si>
+  <si>
+    <t>coordinador lenguas</t>
+  </si>
+  <si>
+    <t>cartera</t>
+  </si>
+  <si>
+    <t>enfermeria</t>
+  </si>
+  <si>
+    <t>papelera</t>
+  </si>
+  <si>
+    <t>rector</t>
+  </si>
+  <si>
+    <t>celador</t>
+  </si>
+  <si>
+    <t>redes</t>
+  </si>
+  <si>
+    <t>bibliotecario</t>
+  </si>
+  <si>
+    <t>pastoral</t>
+  </si>
+  <si>
+    <t>comunicación</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t> Alejandro</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Álvaro</t>
+  </si>
+  <si>
+    <t>Adrián</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Izan</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Álex</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Ángel</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Darío</t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Iker</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Saúl</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Jesús</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Aarón</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Julen</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Unai</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>Aitor</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Rayan</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Asier</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Biel</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Martí</t>
+  </si>
+  <si>
+    <t>Arnau</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Aleix</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Elías</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Teo</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Óscar</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Donato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciro</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rufino</t>
+  </si>
+  <si>
+    <t>Beltrán</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>Baltasar</t>
+  </si>
+  <si>
+    <t>Amancio</t>
+  </si>
+  <si>
+    <t>Amadeo</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Ulises</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Blas</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adrián</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>César</t>
+  </si>
+  <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>Fabián</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jacobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jaime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tristán</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Sebastián</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raúl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicolás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matías</t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juan</t>
+  </si>
+  <si>
+    <t>Darek</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Osiel</t>
+  </si>
+  <si>
+    <t>Adán</t>
+  </si>
+  <si>
+    <t>Azarías</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kerr</t>
+  </si>
+  <si>
+    <t>Oliphant</t>
+  </si>
+  <si>
+    <t>Uzziel</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Abihail</t>
+  </si>
+  <si>
+    <t>A-ki-til</t>
+  </si>
+  <si>
+    <t>Alcibíades</t>
+  </si>
+  <si>
+    <t>Azai</t>
+  </si>
+  <si>
+    <t>Azubuike</t>
+  </si>
+  <si>
+    <t>Baladeva</t>
+  </si>
+  <si>
+    <t>Booz</t>
+  </si>
+  <si>
+    <t>Bricio</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Everaldo</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Sócrates</t>
+  </si>
+  <si>
+    <t>Thilo</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Hariman</t>
+  </si>
+  <si>
+    <t>Fynn</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Gunther</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leo</t>
+  </si>
+  <si>
+    <t>Olegario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odín</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ivar</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>calle/carrera</t>
+  </si>
+  <si>
+    <t>N. Calle/Carrera</t>
+  </si>
+  <si>
+    <t>Numero 1</t>
+  </si>
+  <si>
+    <t>Numero 2</t>
+  </si>
+  <si>
+    <t>D.Calle/carrera</t>
+  </si>
+  <si>
+    <t># Calle/ Carrera</t>
+  </si>
+  <si>
+    <t>numero 1</t>
+  </si>
+  <si>
+    <t>numero 2</t>
+  </si>
+  <si>
+    <t>Mondragon</t>
+  </si>
+  <si>
+    <t>Girardot</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Genoy</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Castaño</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>Maturana</t>
+  </si>
+  <si>
+    <t>Pastrana</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Macias</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Ospina</t>
+  </si>
+  <si>
+    <t>Vanegas</t>
+  </si>
+  <si>
+    <t>macias</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>soto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +841,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +862,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,17 +914,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N106"/>
+  <dimension ref="A2:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,20 +1244,21 @@
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -578,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
@@ -590,27 +1283,36 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>16</v>
@@ -621,7 +1323,9 @@
       <c r="G3" s="1">
         <v>2006</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
@@ -631,25 +1335,38 @@
       <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>54</v>
+      </c>
+      <c r="N3" s="12">
+        <v>54</v>
+      </c>
+      <c r="O3" s="12">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="E4" s="1">
         <v>16</v>
       </c>
@@ -669,23 +1386,38 @@
       <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12">
+        <v>21</v>
+      </c>
+      <c r="O4" s="12">
+        <v>65</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E5" s="1">
         <v>16</v>
       </c>
@@ -705,23 +1437,38 @@
       <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>54</v>
+      </c>
+      <c r="N5" s="12">
+        <v>32</v>
+      </c>
+      <c r="O5" s="12">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="E6" s="1">
         <v>16</v>
       </c>
@@ -741,23 +1488,38 @@
       <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>85</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="1">
         <v>17</v>
       </c>
@@ -777,23 +1539,38 @@
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>61</v>
+      </c>
+      <c r="N7" s="12">
+        <v>74</v>
+      </c>
+      <c r="O7" s="12">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E8" s="1">
         <v>17</v>
       </c>
@@ -813,21 +1590,38 @@
       <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>51</v>
+      </c>
+      <c r="N8" s="12">
+        <v>8</v>
+      </c>
+      <c r="O8" s="12">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E9" s="1">
         <v>16</v>
       </c>
@@ -847,21 +1641,38 @@
       <c r="K9" s="1">
         <v>3</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>84</v>
+      </c>
+      <c r="N9" s="12">
+        <v>56</v>
+      </c>
+      <c r="O9" s="12">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E10" s="1">
         <v>15</v>
       </c>
@@ -881,21 +1692,38 @@
       <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
+        <v>54</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2</v>
+      </c>
+      <c r="O10" s="12">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E11" s="1">
         <v>16</v>
       </c>
@@ -915,21 +1743,38 @@
       <c r="K11" s="1">
         <v>5</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>87</v>
+      </c>
+      <c r="N11" s="12">
+        <v>17</v>
+      </c>
+      <c r="O11" s="12">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="E12" s="1">
         <v>15</v>
       </c>
@@ -949,21 +1794,38 @@
       <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12">
+        <v>26</v>
+      </c>
+      <c r="N12" s="12">
+        <v>32</v>
+      </c>
+      <c r="O12" s="12">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="E13" s="1">
         <v>16</v>
       </c>
@@ -983,21 +1845,38 @@
       <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>56</v>
+      </c>
+      <c r="N13" s="12">
+        <v>2</v>
+      </c>
+      <c r="O13" s="12">
         <v>32</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="E14" s="1">
         <v>15</v>
       </c>
@@ -1017,21 +1896,38 @@
       <c r="K14" s="1">
         <v>5</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>98</v>
+      </c>
+      <c r="N14" s="12">
+        <v>32</v>
+      </c>
+      <c r="O14" s="12">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E15" s="1">
         <v>16</v>
       </c>
@@ -1051,21 +1947,38 @@
       <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>45</v>
+      </c>
+      <c r="N15" s="12">
+        <v>65</v>
+      </c>
+      <c r="O15" s="12">
+        <v>56</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
@@ -1085,21 +1998,38 @@
       <c r="K16" s="1">
         <v>3</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>12</v>
+      </c>
+      <c r="N16" s="12">
+        <v>47</v>
+      </c>
+      <c r="O16" s="12">
+        <v>56</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
@@ -1119,19 +2049,38 @@
       <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>54</v>
+      </c>
+      <c r="N17" s="12">
+        <v>87</v>
+      </c>
+      <c r="O17" s="12">
+        <v>32</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="E18" s="1">
         <v>15</v>
       </c>
@@ -1151,19 +2100,38 @@
       <c r="K18" s="1">
         <v>3</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>51</v>
+      </c>
+      <c r="N18" s="12">
+        <v>45</v>
+      </c>
+      <c r="O18" s="12">
+        <v>45</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E19" s="1">
         <v>14</v>
       </c>
@@ -1183,19 +2151,38 @@
       <c r="K19" s="1">
         <v>4</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>21</v>
+      </c>
+      <c r="N19" s="12">
+        <v>21</v>
+      </c>
+      <c r="O19" s="12">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E20" s="1">
         <v>15</v>
       </c>
@@ -1215,19 +2202,38 @@
       <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>25</v>
+      </c>
+      <c r="N20" s="12">
+        <v>71</v>
+      </c>
+      <c r="O20" s="12">
+        <v>65</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="E21" s="1">
         <v>16</v>
       </c>
@@ -1247,19 +2253,38 @@
       <c r="K21" s="1">
         <v>3</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>54</v>
+      </c>
+      <c r="N21" s="12">
+        <v>31</v>
+      </c>
+      <c r="O21" s="12">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="E22" s="1">
         <v>15</v>
       </c>
@@ -1279,19 +2304,38 @@
       <c r="K22" s="1">
         <v>5</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>74</v>
+      </c>
+      <c r="N22" s="12">
+        <v>64</v>
+      </c>
+      <c r="O22" s="12">
+        <v>65</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="E23" s="1">
         <v>14</v>
       </c>
@@ -1311,19 +2355,38 @@
       <c r="K23" s="1">
         <v>2</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>51</v>
+      </c>
+      <c r="N23" s="12">
+        <v>58</v>
+      </c>
+      <c r="O23" s="12">
+        <v>74</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E24" s="1">
         <v>14</v>
       </c>
@@ -1343,19 +2406,38 @@
       <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="12">
+        <v>32</v>
+      </c>
+      <c r="N24" s="12">
+        <v>45</v>
+      </c>
+      <c r="O24" s="12">
+        <v>23</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="E25" s="1">
         <v>15</v>
       </c>
@@ -1375,19 +2457,38 @@
       <c r="K25" s="1">
         <v>4</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
+        <v>65</v>
+      </c>
+      <c r="N25" s="12">
+        <v>12</v>
+      </c>
+      <c r="O25" s="12">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E26" s="1">
         <v>16</v>
       </c>
@@ -1407,19 +2508,38 @@
       <c r="K26" s="1">
         <v>5</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="12">
+        <v>45</v>
+      </c>
+      <c r="N26" s="12">
+        <v>78</v>
+      </c>
+      <c r="O26" s="12">
+        <v>14</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="E27" s="1">
         <v>15</v>
       </c>
@@ -1439,19 +2559,38 @@
       <c r="K27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>12</v>
+      </c>
+      <c r="N27" s="12">
+        <v>32</v>
+      </c>
+      <c r="O27" s="12">
+        <v>65</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="1">
         <v>16</v>
       </c>
@@ -1471,19 +2610,38 @@
       <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="12">
+        <v>56</v>
+      </c>
+      <c r="N28" s="12">
+        <v>65</v>
+      </c>
+      <c r="O28" s="12">
+        <v>31</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E29" s="1">
         <v>15</v>
       </c>
@@ -1503,19 +2661,38 @@
       <c r="K29" s="1">
         <v>5</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>32</v>
+      </c>
+      <c r="N29" s="12">
+        <v>14</v>
+      </c>
+      <c r="O29" s="12">
+        <v>65</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E30" s="1">
         <v>16</v>
       </c>
@@ -1535,17 +2712,38 @@
       <c r="K30" s="1">
         <v>2</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="12">
+        <v>34</v>
+      </c>
+      <c r="N30" s="12">
+        <v>32</v>
+      </c>
+      <c r="O30" s="12">
+        <v>7</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E31" s="1">
         <v>16</v>
       </c>
@@ -1565,17 +2763,38 @@
       <c r="K31" s="1">
         <v>3</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>61</v>
+      </c>
+      <c r="N31" s="12">
+        <v>32</v>
+      </c>
+      <c r="O31" s="12">
+        <v>14</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E32" s="1">
         <v>17</v>
       </c>
@@ -1595,17 +2814,38 @@
       <c r="K32" s="1">
         <v>5</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="12">
+        <v>52</v>
+      </c>
+      <c r="N32" s="12">
+        <v>15</v>
+      </c>
+      <c r="O32" s="12">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="E33" s="1">
         <v>18</v>
       </c>
@@ -1625,17 +2865,38 @@
       <c r="K33" s="1">
         <v>2</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>16</v>
+      </c>
+      <c r="N33" s="12">
+        <v>14</v>
+      </c>
+      <c r="O33" s="12">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="E34" s="1">
         <v>19</v>
       </c>
@@ -1655,17 +2916,38 @@
       <c r="K34" s="1">
         <v>3</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="12">
+        <v>34</v>
+      </c>
+      <c r="N34" s="12">
+        <v>51</v>
+      </c>
+      <c r="O34" s="12">
+        <v>14</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="E35" s="1">
         <v>18</v>
       </c>
@@ -1685,17 +2967,38 @@
       <c r="K35" s="1">
         <v>4</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>15</v>
+      </c>
+      <c r="N35" s="12">
+        <v>32</v>
+      </c>
+      <c r="O35" s="12">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E36" s="1">
         <v>17</v>
       </c>
@@ -1715,17 +3018,38 @@
       <c r="K36" s="1">
         <v>2</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="12">
+        <v>32</v>
+      </c>
+      <c r="N36" s="12">
+        <v>3</v>
+      </c>
+      <c r="O36" s="12">
+        <v>21</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="E37" s="1">
         <v>18</v>
       </c>
@@ -1745,17 +3069,38 @@
       <c r="K37" s="1">
         <v>3</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="12">
+        <v>64</v>
+      </c>
+      <c r="N37" s="12">
+        <v>15</v>
+      </c>
+      <c r="O37" s="12">
+        <v>41</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E38" s="1">
         <v>19</v>
       </c>
@@ -1775,17 +3120,38 @@
       <c r="K38" s="1">
         <v>5</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12">
+        <v>51</v>
+      </c>
+      <c r="N38" s="12">
+        <v>65</v>
+      </c>
+      <c r="O38" s="12">
+        <v>56</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="E39" s="1">
         <v>17</v>
       </c>
@@ -1805,17 +3171,38 @@
       <c r="K39" s="1">
         <v>2</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12">
+        <v>35</v>
+      </c>
+      <c r="N39" s="12">
+        <v>6</v>
+      </c>
+      <c r="O39" s="12">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E40" s="1">
         <v>14</v>
       </c>
@@ -1835,17 +3222,38 @@
       <c r="K40" s="1">
         <v>3</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>26</v>
+      </c>
+      <c r="N40" s="12">
+        <v>51</v>
+      </c>
+      <c r="O40" s="12">
+        <v>21</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E41" s="1">
         <v>18</v>
       </c>
@@ -1865,17 +3273,38 @@
       <c r="K41" s="1">
         <v>5</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>24</v>
+      </c>
+      <c r="N41" s="12">
+        <v>7</v>
+      </c>
+      <c r="O41" s="12">
+        <v>14</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="E42" s="1">
         <v>16</v>
       </c>
@@ -1895,17 +3324,38 @@
       <c r="K42" s="1">
         <v>2</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <v>15</v>
+      </c>
+      <c r="N42" s="12">
+        <v>56</v>
+      </c>
+      <c r="O42" s="12">
+        <v>65</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="E43" s="1">
         <v>15</v>
       </c>
@@ -1925,17 +3375,38 @@
       <c r="K43" s="1">
         <v>3</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="12">
+        <v>32</v>
+      </c>
+      <c r="N43" s="12">
+        <v>1</v>
+      </c>
+      <c r="O43" s="12">
+        <v>32</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="E44" s="1">
         <v>16</v>
       </c>
@@ -1955,17 +3426,38 @@
       <c r="K44" s="1">
         <v>5</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
+        <v>65</v>
+      </c>
+      <c r="N44" s="12">
+        <v>65</v>
+      </c>
+      <c r="O44" s="12">
+        <v>14</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E45" s="1">
         <v>15</v>
       </c>
@@ -1985,17 +3477,38 @@
       <c r="K45" s="1">
         <v>3</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="12">
+        <v>14</v>
+      </c>
+      <c r="N45" s="12">
+        <v>17</v>
+      </c>
+      <c r="O45" s="12">
+        <v>56</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="E46" s="1">
         <v>16</v>
       </c>
@@ -2015,17 +3528,38 @@
       <c r="K46" s="1">
         <v>5</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="12">
+        <v>21</v>
+      </c>
+      <c r="N46" s="12">
+        <v>65</v>
+      </c>
+      <c r="O46" s="12">
+        <v>32</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E47" s="1">
         <v>17</v>
       </c>
@@ -2045,17 +3579,38 @@
       <c r="K47" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12">
+        <v>23</v>
+      </c>
+      <c r="N47" s="12">
+        <v>32</v>
+      </c>
+      <c r="O47" s="12">
+        <v>15</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="E48" s="1">
         <v>16</v>
       </c>
@@ -2075,17 +3630,38 @@
       <c r="K48" s="1">
         <v>3</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="12">
+        <v>32</v>
+      </c>
+      <c r="N48" s="12">
+        <v>65</v>
+      </c>
+      <c r="O48" s="12">
+        <v>14</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E49" s="1">
         <v>17</v>
       </c>
@@ -2105,17 +3681,38 @@
       <c r="K49" s="1">
         <v>5</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="12">
+        <v>12</v>
+      </c>
+      <c r="N49" s="12">
+        <v>15</v>
+      </c>
+      <c r="O49" s="12">
+        <v>32</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E50" s="1">
         <v>18</v>
       </c>
@@ -2135,17 +3732,38 @@
       <c r="K50" s="1">
         <v>2</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="12">
+        <v>74</v>
+      </c>
+      <c r="N50" s="12">
+        <v>14</v>
+      </c>
+      <c r="O50" s="12">
+        <v>65</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E51" s="1">
         <v>16</v>
       </c>
@@ -2165,17 +3783,38 @@
       <c r="K51" s="1">
         <v>3</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12">
+        <v>57</v>
+      </c>
+      <c r="N51" s="12">
+        <v>47</v>
+      </c>
+      <c r="O51" s="12">
+        <v>54</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E52" s="1">
         <v>18</v>
       </c>
@@ -2195,17 +3834,38 @@
       <c r="K52" s="1">
         <v>5</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="12">
+        <v>64</v>
+      </c>
+      <c r="N52" s="12">
+        <v>65</v>
+      </c>
+      <c r="O52" s="12">
+        <v>12</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E53" s="1">
         <v>11</v>
       </c>
@@ -2225,17 +3885,38 @@
       <c r="K53" s="1">
         <v>2</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="12">
+        <v>51</v>
+      </c>
+      <c r="N53" s="12">
+        <v>35</v>
+      </c>
+      <c r="O53" s="12">
+        <v>54</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="E54" s="1">
         <v>17</v>
       </c>
@@ -2255,17 +3936,38 @@
       <c r="K54" s="1">
         <v>3</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <v>76</v>
+      </c>
+      <c r="N54" s="12">
+        <v>15</v>
+      </c>
+      <c r="O54" s="12">
+        <v>65</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="E55" s="1">
         <v>18</v>
       </c>
@@ -2285,17 +3987,38 @@
       <c r="K55" s="1">
         <v>5</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="12">
+        <v>15</v>
+      </c>
+      <c r="N55" s="12">
+        <v>17</v>
+      </c>
+      <c r="O55" s="12">
+        <v>23</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="E56" s="1">
         <v>19</v>
       </c>
@@ -2315,17 +4038,38 @@
       <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="12">
+        <v>34</v>
+      </c>
+      <c r="N56" s="12">
+        <v>65</v>
+      </c>
+      <c r="O56" s="12">
+        <v>12</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E57" s="1">
         <v>16</v>
       </c>
@@ -2345,17 +4089,38 @@
       <c r="K57" s="1">
         <v>2</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>12</v>
+      </c>
+      <c r="N57" s="12">
+        <v>32</v>
+      </c>
+      <c r="O57" s="12">
+        <v>32</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="E58" s="1">
         <v>16</v>
       </c>
@@ -2375,17 +4140,38 @@
       <c r="K58" s="1">
         <v>3</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>74</v>
+      </c>
+      <c r="N58" s="12">
+        <v>14</v>
+      </c>
+      <c r="O58" s="12">
+        <v>14</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E59" s="1">
         <v>18</v>
       </c>
@@ -2405,17 +4191,38 @@
       <c r="K59" s="1">
         <v>3</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="12">
+        <v>54</v>
+      </c>
+      <c r="N59" s="12">
+        <v>56</v>
+      </c>
+      <c r="O59" s="12">
+        <v>14</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="E60" s="1">
         <v>19</v>
       </c>
@@ -2435,17 +4242,38 @@
       <c r="K60" s="1">
         <v>4</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>48</v>
+      </c>
+      <c r="N60" s="12">
+        <v>56</v>
+      </c>
+      <c r="O60" s="12">
+        <v>54</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E61" s="1">
         <v>16</v>
       </c>
@@ -2465,17 +4293,38 @@
       <c r="K61" s="1">
         <v>3</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>65</v>
+      </c>
+      <c r="N61" s="12">
+        <v>32</v>
+      </c>
+      <c r="O61" s="12">
+        <v>21</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E62" s="1">
         <v>18</v>
       </c>
@@ -2495,17 +4344,38 @@
       <c r="K62" s="1">
         <v>3</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="12">
+        <v>35</v>
+      </c>
+      <c r="N62" s="12">
+        <v>45</v>
+      </c>
+      <c r="O62" s="12">
+        <v>32</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="E63" s="1">
         <v>17</v>
       </c>
@@ -2525,17 +4395,38 @@
       <c r="K63" s="1">
         <v>2</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="12">
+        <v>41</v>
+      </c>
+      <c r="N63" s="12">
+        <v>65</v>
+      </c>
+      <c r="O63" s="12">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="E64" s="1">
         <v>16</v>
       </c>
@@ -2555,17 +4446,38 @@
       <c r="K64" s="1">
         <v>5</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="12">
+        <v>21</v>
+      </c>
+      <c r="N64" s="12">
+        <v>65</v>
+      </c>
+      <c r="O64" s="12">
+        <v>74</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="E65" s="1">
         <v>16</v>
       </c>
@@ -2585,17 +4497,38 @@
       <c r="K65" s="1">
         <v>2</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="12">
+        <v>56</v>
+      </c>
+      <c r="N65" s="12">
+        <v>14</v>
+      </c>
+      <c r="O65" s="12">
+        <v>8</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E66" s="1">
         <v>18</v>
       </c>
@@ -2615,17 +4548,38 @@
       <c r="K66" s="1">
         <v>3</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="12">
+        <v>32</v>
+      </c>
+      <c r="N66" s="12">
+        <v>65</v>
+      </c>
+      <c r="O66" s="12">
+        <v>56</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="E67" s="1">
         <v>16</v>
       </c>
@@ -2645,17 +4599,38 @@
       <c r="K67" s="1">
         <v>5</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="12">
+        <v>14</v>
+      </c>
+      <c r="N67" s="12">
+        <v>74</v>
+      </c>
+      <c r="O67" s="12">
+        <v>2</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E68" s="1">
         <v>16</v>
       </c>
@@ -2675,17 +4650,38 @@
       <c r="K68" s="1">
         <v>2</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="12">
+        <v>67</v>
+      </c>
+      <c r="N68" s="12">
+        <v>23</v>
+      </c>
+      <c r="O68" s="12">
+        <v>17</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="E69" s="1">
         <v>17</v>
       </c>
@@ -2705,17 +4701,38 @@
       <c r="K69" s="1">
         <v>3</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="12">
+        <v>45</v>
+      </c>
+      <c r="N69" s="12">
+        <v>25</v>
+      </c>
+      <c r="O69" s="12">
+        <v>32</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E70" s="1">
         <v>16</v>
       </c>
@@ -2735,17 +4752,38 @@
       <c r="K70" s="1">
         <v>4</v>
       </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <v>65</v>
+      </c>
+      <c r="N70" s="12">
+        <v>14</v>
+      </c>
+      <c r="O70" s="12">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E71" s="1">
         <v>17</v>
       </c>
@@ -2765,17 +4803,38 @@
       <c r="K71" s="1">
         <v>2</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="12">
+        <v>65</v>
+      </c>
+      <c r="N71" s="12">
+        <v>65</v>
+      </c>
+      <c r="O71" s="12">
+        <v>32</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E72" s="1">
         <v>16</v>
       </c>
@@ -2795,17 +4854,38 @@
       <c r="K72" s="1">
         <v>3</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="12">
+        <v>65</v>
+      </c>
+      <c r="N72" s="12">
+        <v>31</v>
+      </c>
+      <c r="O72" s="12">
+        <v>65</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E73" s="1">
         <v>18</v>
       </c>
@@ -2825,17 +4905,38 @@
       <c r="K73" s="1">
         <v>5</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="12">
+        <v>23</v>
+      </c>
+      <c r="N73" s="12">
+        <v>65</v>
+      </c>
+      <c r="O73" s="12">
+        <v>47</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E74" s="1">
         <v>18</v>
       </c>
@@ -2855,17 +4956,38 @@
       <c r="K74" s="1">
         <v>2</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="12">
+        <v>41</v>
+      </c>
+      <c r="N74" s="12">
+        <v>7</v>
+      </c>
+      <c r="O74" s="12">
+        <v>87</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="E75" s="1">
         <v>18</v>
       </c>
@@ -2885,17 +5007,38 @@
       <c r="K75" s="1">
         <v>3</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="12">
+        <v>54</v>
+      </c>
+      <c r="N75" s="12">
+        <v>14</v>
+      </c>
+      <c r="O75" s="12">
+        <v>45</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="E76" s="1">
         <v>19</v>
       </c>
@@ -2915,17 +5058,38 @@
       <c r="K76" s="1">
         <v>5</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="12">
+        <v>21</v>
+      </c>
+      <c r="N76" s="12">
+        <v>32</v>
+      </c>
+      <c r="O76" s="12">
+        <v>21</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="E77" s="1">
         <v>18</v>
       </c>
@@ -2945,17 +5109,38 @@
       <c r="K77" s="1">
         <v>3</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="12">
+        <v>54</v>
+      </c>
+      <c r="N77" s="12">
+        <v>2</v>
+      </c>
+      <c r="O77" s="12">
+        <v>71</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E78" s="1">
         <v>19</v>
       </c>
@@ -2975,17 +5160,38 @@
       <c r="K78" s="1">
         <v>5</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="12">
+        <v>45</v>
+      </c>
+      <c r="N78" s="12">
+        <v>14</v>
+      </c>
+      <c r="O78" s="12">
+        <v>31</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="E79" s="1">
         <v>16</v>
       </c>
@@ -3005,17 +5211,38 @@
       <c r="K79" s="1">
         <v>2</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="12">
+        <v>12</v>
+      </c>
+      <c r="N79" s="12">
+        <v>3</v>
+      </c>
+      <c r="O79" s="12">
+        <v>64</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E80" s="1">
         <v>17</v>
       </c>
@@ -3035,17 +5262,38 @@
       <c r="K80" s="1">
         <v>3</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="12">
+        <v>41</v>
+      </c>
+      <c r="N80" s="12">
+        <v>21</v>
+      </c>
+      <c r="O80" s="12">
+        <v>58</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="E81" s="1">
         <v>18</v>
       </c>
@@ -3065,17 +5313,38 @@
       <c r="K81" s="1">
         <v>5</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="12">
+        <v>65</v>
+      </c>
+      <c r="N81" s="12">
+        <v>41</v>
+      </c>
+      <c r="O81" s="12">
+        <v>45</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E82" s="1">
         <v>16</v>
       </c>
@@ -3095,17 +5364,38 @@
       <c r="K82" s="1">
         <v>2</v>
       </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="12">
+        <v>62</v>
+      </c>
+      <c r="N82" s="12">
+        <v>56</v>
+      </c>
+      <c r="O82" s="12">
+        <v>12</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E83" s="1">
         <v>18</v>
       </c>
@@ -3125,17 +5415,38 @@
       <c r="K83" s="1">
         <v>3</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <v>71</v>
+      </c>
+      <c r="N83" s="12">
+        <v>3</v>
+      </c>
+      <c r="O83" s="12">
+        <v>78</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="E84" s="1">
         <v>17</v>
       </c>
@@ -3155,17 +5466,38 @@
       <c r="K84" s="1">
         <v>5</v>
       </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="12">
+        <v>21</v>
+      </c>
+      <c r="N84" s="12">
+        <v>21</v>
+      </c>
+      <c r="O84" s="12">
+        <v>32</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="E85" s="1">
         <v>16</v>
       </c>
@@ -3185,17 +5517,38 @@
       <c r="K85" s="1">
         <v>2</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="12">
+        <v>54</v>
+      </c>
+      <c r="N85" s="12">
+        <v>14</v>
+      </c>
+      <c r="O85" s="12">
+        <v>65</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="E86" s="1">
         <v>16</v>
       </c>
@@ -3215,17 +5568,38 @@
       <c r="K86" s="1">
         <v>3</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="12">
+        <v>74</v>
+      </c>
+      <c r="N86" s="12">
+        <v>65</v>
+      </c>
+      <c r="O86" s="12">
+        <v>14</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E87" s="1">
         <v>15</v>
       </c>
@@ -3245,17 +5619,38 @@
       <c r="K87" s="1">
         <v>5</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="12">
+        <v>65</v>
+      </c>
+      <c r="N87" s="12">
+        <v>32</v>
+      </c>
+      <c r="O87" s="12">
+        <v>32</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="E88" s="1">
         <v>16</v>
       </c>
@@ -3275,17 +5670,38 @@
       <c r="K88" s="1">
         <v>2</v>
       </c>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="12">
+        <v>31</v>
+      </c>
+      <c r="N88" s="12">
+        <v>14</v>
+      </c>
+      <c r="O88" s="12">
+        <v>32</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E89" s="1">
         <v>18</v>
       </c>
@@ -3305,17 +5721,38 @@
       <c r="K89" s="1">
         <v>3</v>
       </c>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="12">
+        <v>65</v>
+      </c>
+      <c r="N89" s="12">
+        <v>56</v>
+      </c>
+      <c r="O89" s="11">
+        <v>32</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="E90" s="1">
         <v>17</v>
       </c>
@@ -3335,17 +5772,38 @@
       <c r="K90" s="1">
         <v>5</v>
       </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="12">
+        <v>52</v>
+      </c>
+      <c r="N90" s="12">
+        <v>32</v>
+      </c>
+      <c r="O90" s="12">
+        <v>12</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E91" s="1">
         <v>19</v>
       </c>
@@ -3365,17 +5823,38 @@
       <c r="K91" s="1">
         <v>2</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="12">
+        <v>66</v>
+      </c>
+      <c r="N91" s="12">
+        <v>15</v>
+      </c>
+      <c r="O91" s="12">
+        <v>23</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E92" s="1">
         <v>16</v>
       </c>
@@ -3395,17 +5874,38 @@
       <c r="K92" s="1">
         <v>3</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="12">
+        <v>74</v>
+      </c>
+      <c r="N92" s="12">
+        <v>14</v>
+      </c>
+      <c r="O92" s="12">
+        <v>12</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E93" s="1">
         <v>17</v>
       </c>
@@ -3425,17 +5925,38 @@
       <c r="K93" s="1">
         <v>5</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="12">
+        <v>57</v>
+      </c>
+      <c r="N93" s="12">
+        <v>32</v>
+      </c>
+      <c r="O93" s="12">
+        <v>32</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E94" s="1">
         <v>18</v>
       </c>
@@ -3455,17 +5976,38 @@
       <c r="K94" s="1">
         <v>2</v>
       </c>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="12">
+        <v>65</v>
+      </c>
+      <c r="N94" s="12">
+        <v>65</v>
+      </c>
+      <c r="O94" s="12">
+        <v>43</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E95" s="1">
         <v>16</v>
       </c>
@@ -3485,17 +6027,38 @@
       <c r="K95" s="1">
         <v>3</v>
       </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="12">
+        <v>32</v>
+      </c>
+      <c r="N95" s="12">
+        <v>54</v>
+      </c>
+      <c r="O95" s="12">
+        <v>34</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="E96" s="1">
         <v>18</v>
       </c>
@@ -3515,17 +6078,38 @@
       <c r="K96" s="1">
         <v>5</v>
       </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="12">
+        <v>14</v>
+      </c>
+      <c r="N96" s="12">
+        <v>12</v>
+      </c>
+      <c r="O96" s="12">
+        <v>34</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="E97" s="1">
         <v>19</v>
       </c>
@@ -3545,17 +6129,38 @@
       <c r="K97" s="1">
         <v>2</v>
       </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="12">
+        <v>65</v>
+      </c>
+      <c r="N97" s="12">
+        <v>54</v>
+      </c>
+      <c r="O97" s="12">
+        <v>54</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="E98" s="1">
         <v>16</v>
       </c>
@@ -3575,17 +6180,38 @@
       <c r="K98" s="1">
         <v>3</v>
       </c>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="12">
+        <v>14</v>
+      </c>
+      <c r="N98" s="12">
+        <v>65</v>
+      </c>
+      <c r="O98" s="12">
+        <v>54</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E99" s="1">
         <v>17</v>
       </c>
@@ -3605,17 +6231,38 @@
       <c r="K99" s="1">
         <v>2</v>
       </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="12">
+        <v>56</v>
+      </c>
+      <c r="N99" s="12">
+        <v>23</v>
+      </c>
+      <c r="O99" s="12">
+        <v>23</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="E100" s="1">
         <v>15</v>
       </c>
@@ -3635,17 +6282,38 @@
       <c r="K100" s="1">
         <v>3</v>
       </c>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="12">
+        <v>23</v>
+      </c>
+      <c r="N100" s="12">
+        <v>12</v>
+      </c>
+      <c r="O100" s="12">
+        <v>4</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E101" s="1">
         <v>17</v>
       </c>
@@ -3665,17 +6333,38 @@
       <c r="K101" s="1">
         <v>5</v>
       </c>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="12">
+        <v>14</v>
+      </c>
+      <c r="N101" s="12">
+        <v>32</v>
+      </c>
+      <c r="O101" s="12">
+        <v>52</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="E102" s="1">
         <v>15</v>
       </c>
@@ -3695,17 +6384,38 @@
       <c r="K102" s="1">
         <v>2</v>
       </c>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="12">
+        <v>65</v>
+      </c>
+      <c r="N102" s="12">
+        <v>14</v>
+      </c>
+      <c r="O102" s="12">
+        <v>3</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E103" s="1">
         <v>16</v>
       </c>
@@ -3725,24 +6435,1363 @@
       <c r="K103" s="1">
         <v>3</v>
       </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J104" s="5"/>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N106" s="3"/>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="12">
+        <v>23</v>
+      </c>
+      <c r="N103" s="12">
+        <v>14</v>
+      </c>
+      <c r="O103" s="12">
+        <v>5</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H104" s="5"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L106" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>305645814</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>305647382</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>304783892</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>849683956</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>305482703</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>305647183</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>305929384</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>322323253</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>305324234</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>302342343</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>302352623</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>304523423</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>306234234</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>307823425</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>305342362</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>305234523</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>305783843</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>309435132</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>304332353</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>304867867</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>305876786</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>305645814</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>305647382</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>54</v>
+      </c>
+      <c r="K4" s="12">
+        <v>21</v>
+      </c>
+      <c r="L4" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>304783892</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12">
+        <v>54</v>
+      </c>
+      <c r="L5" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>849683956</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>84</v>
+      </c>
+      <c r="K6" s="12">
+        <v>54</v>
+      </c>
+      <c r="L6" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>305482703</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>24</v>
+      </c>
+      <c r="K7" s="12">
+        <v>65</v>
+      </c>
+      <c r="L7" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>305647183</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>51</v>
+      </c>
+      <c r="K8" s="12">
+        <v>32</v>
+      </c>
+      <c r="L8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>305929384</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>58</v>
+      </c>
+      <c r="K9" s="12">
+        <v>54</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>322323253</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>48</v>
+      </c>
+      <c r="K10" s="12">
+        <v>12</v>
+      </c>
+      <c r="L10" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>305324234</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45</v>
+      </c>
+      <c r="K11" s="12">
+        <v>45</v>
+      </c>
+      <c r="L11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>302342343</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>46</v>
+      </c>
+      <c r="K12" s="12">
+        <v>13</v>
+      </c>
+      <c r="L12" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>302352623</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>52</v>
+      </c>
+      <c r="K13" s="12">
+        <v>15</v>
+      </c>
+      <c r="L13" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>304523423</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>21</v>
+      </c>
+      <c r="K14" s="12">
+        <v>65</v>
+      </c>
+      <c r="L14" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>306234234</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>54</v>
+      </c>
+      <c r="K15" s="12">
+        <v>51</v>
+      </c>
+      <c r="L15" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>307823425</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>87</v>
+      </c>
+      <c r="K16" s="12">
+        <v>21</v>
+      </c>
+      <c r="L16" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>305342362</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>98</v>
+      </c>
+      <c r="K17" s="12">
+        <v>8</v>
+      </c>
+      <c r="L17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>305234523</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>65</v>
+      </c>
+      <c r="K18" s="12">
+        <v>65</v>
+      </c>
+      <c r="L18" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>305783843</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>62</v>
+      </c>
+      <c r="K19" s="12">
+        <v>32</v>
+      </c>
+      <c r="L19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>309435132</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>65</v>
+      </c>
+      <c r="K20" s="12">
+        <v>65</v>
+      </c>
+      <c r="L20" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>304332353</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>54</v>
+      </c>
+      <c r="K21" s="12">
+        <v>32</v>
+      </c>
+      <c r="L21" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>305403454</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12">
+        <v>3</v>
+      </c>
+      <c r="L22" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="H23" s="12">
+        <v>305687856</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>21</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2</v>
+      </c>
+      <c r="L23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>